--- a/src/main/resources/template/excel/export/purchaseReplenishAnalyReport.xlsx
+++ b/src/main/resources/template/excel/export/purchaseReplenishAnalyReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="Q3")</t>
+          <t>jx:area(lastCell="Q4")</t>
         </r>
       </text>
     </comment>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>${obj.skuName}</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -183,6 +183,29 @@
   </si>
   <si>
     <t>${obj.actualStock}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>$[SUM(M3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(N3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(O3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(P3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(Q3)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -190,6 +213,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -298,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -319,12 +345,83 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -344,7 +441,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -626,7 +723,7 @@
   <dimension ref="A1:EK76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1026,7 +1123,37 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="5" spans="1:141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/purchaseReplenishAnalyReport.xlsx
+++ b/src/main/resources/template/excel/export/purchaseReplenishAnalyReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace_jxc\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,6 +31,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="Q3")</t>
@@ -44,6 +45,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="Q3")</t>
@@ -202,12 +204,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -215,6 +219,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -222,22 +227,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -623,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EK76"/>
+  <dimension ref="A1:EK75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1029,7 +1038,7 @@
     <row r="4" spans="1:141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:141" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:141" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:141" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:141" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1098,7 +1107,6 @@
     <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>

--- a/src/main/resources/template/excel/export/purchaseReplenishAnalyReport.xlsx
+++ b/src/main/resources/template/excel/export/purchaseReplenishAnalyReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,9 +31,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="Q4")</t>
+          <t>jx:area(lastCell="Q3")</t>
         </r>
       </text>
     </comment>
@@ -44,6 +45,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="Q3")</t>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>${obj.skuName}</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -183,29 +185,6 @@
   </si>
   <si>
     <t>${obj.actualStock}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计：</t>
-  </si>
-  <si>
-    <t>$[SUM(M3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(N3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(O3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(P3)]</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUM(Q3)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -213,9 +192,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
-  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,12 +204,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -241,6 +219,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -248,22 +227,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -324,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -345,83 +328,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -441,7 +353,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -720,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EK76"/>
+  <dimension ref="A1:EK75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1123,40 +1035,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
+    <row r="4" spans="1:141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:141" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:141" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:141" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:141" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1225,7 +1107,6 @@
     <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>
